--- a/Experimental_Results/data/gate_and_measurement_error_18q.xlsx
+++ b/Experimental_Results/data/gate_and_measurement_error_18q.xlsx
@@ -9,17 +9,18 @@
   <sheets>
     <sheet name="readout_errors" sheetId="1" r:id="rId1"/>
     <sheet name="sq_gate" sheetId="2" r:id="rId2"/>
-    <sheet name="CZ" sheetId="3" r:id="rId3"/>
-    <sheet name="algorithm_z" sheetId="4" r:id="rId4"/>
-    <sheet name="coherence_time" sheetId="5" r:id="rId5"/>
-    <sheet name="f10s" sheetId="6" r:id="rId6"/>
+    <sheet name="CZ_cycle" sheetId="3" r:id="rId3"/>
+    <sheet name="CZ" sheetId="4" r:id="rId4"/>
+    <sheet name="algorithm_z" sheetId="5" r:id="rId5"/>
+    <sheet name="coherence_time" sheetId="6" r:id="rId6"/>
+    <sheet name="f10s" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
   <si>
     <t>measureF0</t>
   </si>
@@ -87,58 +88,61 @@
     <t>sq_errors</t>
   </si>
   <si>
+    <t>cz_errors_cycle</t>
+  </si>
+  <si>
+    <t>c10_7</t>
+  </si>
+  <si>
+    <t>c12_7</t>
+  </si>
+  <si>
+    <t>c13_2</t>
+  </si>
+  <si>
+    <t>c13_4</t>
+  </si>
+  <si>
+    <t>c13_6</t>
+  </si>
+  <si>
+    <t>c3_14</t>
+  </si>
+  <si>
+    <t>c3_16</t>
+  </si>
+  <si>
+    <t>c3_18</t>
+  </si>
+  <si>
+    <t>c3_20</t>
+  </si>
+  <si>
+    <t>c4_13</t>
+  </si>
+  <si>
+    <t>c4_21</t>
+  </si>
+  <si>
+    <t>c5_10</t>
+  </si>
+  <si>
+    <t>c5_12</t>
+  </si>
+  <si>
+    <t>c5_8</t>
+  </si>
+  <si>
+    <t>c6_21</t>
+  </si>
+  <si>
+    <t>c6_7</t>
+  </si>
+  <si>
+    <t>c8_7</t>
+  </si>
+  <si>
     <t>cz_errors</t>
-  </si>
-  <si>
-    <t>c10_7</t>
-  </si>
-  <si>
-    <t>c12_7</t>
-  </si>
-  <si>
-    <t>c13_2</t>
-  </si>
-  <si>
-    <t>c13_4</t>
-  </si>
-  <si>
-    <t>c13_6</t>
-  </si>
-  <si>
-    <t>c3_14</t>
-  </si>
-  <si>
-    <t>c3_16</t>
-  </si>
-  <si>
-    <t>c3_18</t>
-  </si>
-  <si>
-    <t>c3_20</t>
-  </si>
-  <si>
-    <t>c4_13</t>
-  </si>
-  <si>
-    <t>c4_21</t>
-  </si>
-  <si>
-    <t>c5_10</t>
-  </si>
-  <si>
-    <t>c5_12</t>
-  </si>
-  <si>
-    <t>c5_8</t>
-  </si>
-  <si>
-    <t>c6_21</t>
-  </si>
-  <si>
-    <t>c6_7</t>
-  </si>
-  <si>
-    <t>c8_7</t>
   </si>
   <si>
     <t>algorithm_z</t>
@@ -1103,6 +1107,160 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>0.003183306461414293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>0.003342589976060295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>0.005739495853714138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0.003774743032319394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>0.003436619617872227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>0.002280375593810446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>0.006208231979833223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0.007269912184714178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>0.002864882236335298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>0.005018561909357233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>0.002575160322963566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>0.005661055569654239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>0.002129891998748468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>0.004512789922250127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>0.002918966227230313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>0.00199312556864284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>0.003959076445925969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1111,7 +1269,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1135,7 +1293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1145,13 +1303,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1411,7 +1569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1421,7 +1579,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Experimental_Results/data/gate_and_measurement_error_18q.xlsx
+++ b/Experimental_Results/data/gate_and_measurement_error_18q.xlsx
@@ -9,18 +9,17 @@
   <sheets>
     <sheet name="readout_errors" sheetId="1" r:id="rId1"/>
     <sheet name="sq_gate" sheetId="2" r:id="rId2"/>
-    <sheet name="CZ_cycle" sheetId="3" r:id="rId3"/>
-    <sheet name="CZ" sheetId="4" r:id="rId4"/>
-    <sheet name="algorithm_z" sheetId="5" r:id="rId5"/>
-    <sheet name="coherence_time" sheetId="6" r:id="rId6"/>
-    <sheet name="f10s" sheetId="7" r:id="rId7"/>
+    <sheet name="CZ" sheetId="3" r:id="rId3"/>
+    <sheet name="algorithm_z" sheetId="4" r:id="rId4"/>
+    <sheet name="coherence_time" sheetId="5" r:id="rId5"/>
+    <sheet name="f10s" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
   <si>
     <t>measureF0</t>
   </si>
@@ -88,7 +87,7 @@
     <t>sq_errors</t>
   </si>
   <si>
-    <t>cz_errors_cycle</t>
+    <t>cz_errors</t>
   </si>
   <si>
     <t>c10_7</t>
@@ -140,9 +139,6 @@
   </si>
   <si>
     <t>c8_7</t>
-  </si>
-  <si>
-    <t>cz_errors</t>
   </si>
   <si>
     <t>algorithm_z</t>
@@ -1107,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1120,138 +1116,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.003183306461414293</v>
+        <v>0.001360416466852254</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>0.003342589976060295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>0.005739495853714138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>0.003774743032319394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>0.003436619617872227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>0.002280375593810446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>0.006208231979833223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>0.007269912184714178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>0.002864882236335298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>0.005018561909357233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12">
-        <v>0.002575160322963566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13">
-        <v>0.005661055569654239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>0.002129891998748468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>0.004512789922250127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16">
-        <v>0.002918966227230313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <v>0.00199312556864284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18">
-        <v>0.003959076445925969</v>
+        <v>0.0008389725966988226</v>
       </c>
     </row>
   </sheetData>
@@ -1260,40 +1136,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.001360416466852254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>0.0008389725966988226</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1303,13 +1145,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1569,7 +1411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1579,7 +1421,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
